--- a/output/tbl_fundCode.xlsx
+++ b/output/tbl_fundCode.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="565">
   <si>
     <t>fundCode</t>
   </si>
@@ -894,6 +894,9 @@
   </si>
   <si>
     <t>98140000</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Sam A. Idelson Scholarship Fund</t>
@@ -1766,296 +1769,296 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="e">
-        <v>#N/A</v>
+      <c r="B3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="e">
-        <v>#N/A</v>
+      <c r="B4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
+      <c r="B5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="e">
-        <v>#N/A</v>
+      <c r="B6" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="e">
-        <v>#N/A</v>
+      <c r="B7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="e">
-        <v>#N/A</v>
+      <c r="B8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="e">
-        <v>#N/A</v>
+      <c r="B9" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="e">
-        <v>#N/A</v>
+      <c r="B10" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="e">
-        <v>#N/A</v>
+      <c r="B11" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="e">
-        <v>#N/A</v>
+      <c r="B12" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="e">
-        <v>#N/A</v>
+      <c r="B13" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="e">
-        <v>#N/A</v>
+      <c r="B14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="e">
-        <v>#N/A</v>
+      <c r="B15" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="e">
-        <v>#N/A</v>
+      <c r="B16" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="e">
-        <v>#N/A</v>
+      <c r="B17" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="e">
-        <v>#N/A</v>
+      <c r="B18" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="e">
-        <v>#N/A</v>
+      <c r="B19" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="e">
-        <v>#N/A</v>
+      <c r="B20" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="e">
-        <v>#N/A</v>
+      <c r="B21" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="e">
-        <v>#N/A</v>
+      <c r="B22" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="e">
-        <v>#N/A</v>
+      <c r="B23" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="e">
-        <v>#N/A</v>
+      <c r="B24" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="e">
-        <v>#N/A</v>
+      <c r="B25" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="e">
-        <v>#N/A</v>
+      <c r="B26" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="e">
-        <v>#N/A</v>
+      <c r="B27" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="e">
-        <v>#N/A</v>
+      <c r="B28" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="e">
-        <v>#N/A</v>
+      <c r="B29" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="e">
-        <v>#N/A</v>
+      <c r="B30" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="e">
-        <v>#N/A</v>
+      <c r="B31" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="e">
-        <v>#N/A</v>
+      <c r="B32" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="e">
-        <v>#N/A</v>
+      <c r="B33" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="e">
-        <v>#N/A</v>
+      <c r="B34" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="e">
-        <v>#N/A</v>
+      <c r="B35" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="e">
-        <v>#N/A</v>
+      <c r="B36" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="e">
-        <v>#N/A</v>
+      <c r="B37" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="e">
-        <v>#N/A</v>
+      <c r="B38" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="39">
@@ -2063,7 +2066,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40">
@@ -2071,7 +2074,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41">
@@ -2079,7 +2082,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42">
@@ -2087,7 +2090,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43">
@@ -2095,7 +2098,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44">
@@ -2103,7 +2106,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45">
@@ -2111,7 +2114,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
@@ -2119,7 +2122,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47">
@@ -2127,7 +2130,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48">
@@ -2135,7 +2138,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49">
@@ -2143,7 +2146,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50">
@@ -2151,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
@@ -2159,7 +2162,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
@@ -2167,7 +2170,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53">
@@ -2175,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
@@ -2183,7 +2186,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55">
@@ -2191,7 +2194,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
@@ -2199,7 +2202,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57">
@@ -2207,7 +2210,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58">
@@ -2215,7 +2218,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59">
@@ -2223,7 +2226,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60">
@@ -2231,7 +2234,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61">
@@ -2239,7 +2242,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62">
@@ -2247,7 +2250,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63">
@@ -2255,7 +2258,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64">
@@ -2263,7 +2266,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65">
@@ -2271,7 +2274,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66">
@@ -2279,7 +2282,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67">
@@ -2287,7 +2290,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68">
@@ -2295,7 +2298,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69">
@@ -2303,7 +2306,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70">
@@ -2311,7 +2314,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71">
@@ -2319,7 +2322,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72">
@@ -2327,7 +2330,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73">
@@ -2335,7 +2338,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74">
@@ -2343,7 +2346,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75">
@@ -2351,7 +2354,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76">
@@ -2359,7 +2362,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77">
@@ -2367,7 +2370,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78">
@@ -2375,7 +2378,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79">
@@ -2383,7 +2386,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80">
@@ -2391,7 +2394,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81">
@@ -2399,7 +2402,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82">
@@ -2407,7 +2410,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83">
@@ -2415,7 +2418,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84">
@@ -2423,15 +2426,15 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" t="e">
-        <v>#N/A</v>
+      <c r="B85" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="86">
@@ -2439,7 +2442,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87">
@@ -2447,7 +2450,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88">
@@ -2455,7 +2458,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89">
@@ -2463,7 +2466,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90">
@@ -2471,7 +2474,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91">
@@ -2479,7 +2482,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92">
@@ -2487,7 +2490,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93">
@@ -2495,15 +2498,15 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" t="e">
-        <v>#N/A</v>
+      <c r="B94" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="95">
@@ -2511,7 +2514,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96">
@@ -2519,7 +2522,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97">
@@ -2527,7 +2530,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98">
@@ -2535,7 +2538,7 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99">
@@ -2543,7 +2546,7 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100">
@@ -2551,7 +2554,7 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101">
@@ -2559,7 +2562,7 @@
         <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102">
@@ -2567,7 +2570,7 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="103">
@@ -2575,7 +2578,7 @@
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104">
@@ -2583,7 +2586,7 @@
         <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="105">
@@ -2591,7 +2594,7 @@
         <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="106">
@@ -2599,7 +2602,7 @@
         <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107">
@@ -2607,7 +2610,7 @@
         <v>95</v>
       </c>
       <c r="B107" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108">
@@ -2615,7 +2618,7 @@
         <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109">
@@ -2623,7 +2626,7 @@
         <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110">
@@ -2631,7 +2634,7 @@
         <v>95</v>
       </c>
       <c r="B110" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111">
@@ -2639,7 +2642,7 @@
         <v>95</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112">
@@ -2647,7 +2650,7 @@
         <v>95</v>
       </c>
       <c r="B112" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="113">
@@ -2655,7 +2658,7 @@
         <v>95</v>
       </c>
       <c r="B113" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="114">
@@ -2663,7 +2666,7 @@
         <v>95</v>
       </c>
       <c r="B114" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="115">
@@ -2671,7 +2674,7 @@
         <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116">
@@ -2679,7 +2682,7 @@
         <v>95</v>
       </c>
       <c r="B116" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117">
@@ -2687,7 +2690,7 @@
         <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118">
@@ -2695,7 +2698,7 @@
         <v>95</v>
       </c>
       <c r="B118" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119">
@@ -2703,7 +2706,7 @@
         <v>95</v>
       </c>
       <c r="B119" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="120">
@@ -2711,7 +2714,7 @@
         <v>95</v>
       </c>
       <c r="B120" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121">
@@ -2719,7 +2722,7 @@
         <v>96</v>
       </c>
       <c r="B121" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122">
@@ -2727,7 +2730,7 @@
         <v>97</v>
       </c>
       <c r="B122" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123">
@@ -2735,7 +2738,7 @@
         <v>98</v>
       </c>
       <c r="B123" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="124">
@@ -2743,7 +2746,7 @@
         <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125">
@@ -2751,15 +2754,15 @@
         <v>100</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>101</v>
       </c>
-      <c r="B126" t="e">
-        <v>#N/A</v>
+      <c r="B126" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="127">
@@ -2767,7 +2770,7 @@
         <v>102</v>
       </c>
       <c r="B127" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128">
@@ -2775,15 +2778,15 @@
         <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>104</v>
       </c>
-      <c r="B129" t="e">
-        <v>#N/A</v>
+      <c r="B129" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="130">
@@ -2791,7 +2794,7 @@
         <v>105</v>
       </c>
       <c r="B130" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131">
@@ -2799,7 +2802,7 @@
         <v>106</v>
       </c>
       <c r="B131" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132">
@@ -2807,7 +2810,7 @@
         <v>107</v>
       </c>
       <c r="B132" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133">
@@ -2815,7 +2818,7 @@
         <v>108</v>
       </c>
       <c r="B133" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134">
@@ -2823,7 +2826,7 @@
         <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="135">
@@ -2831,7 +2834,7 @@
         <v>110</v>
       </c>
       <c r="B135" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136">
@@ -2839,7 +2842,7 @@
         <v>111</v>
       </c>
       <c r="B136" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="137">
@@ -2847,7 +2850,7 @@
         <v>112</v>
       </c>
       <c r="B137" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="138">
@@ -2855,7 +2858,7 @@
         <v>113</v>
       </c>
       <c r="B138" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="139">
@@ -2863,7 +2866,7 @@
         <v>114</v>
       </c>
       <c r="B139" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140">
@@ -2871,7 +2874,7 @@
         <v>115</v>
       </c>
       <c r="B140" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141">
@@ -2879,7 +2882,7 @@
         <v>116</v>
       </c>
       <c r="B141" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142">
@@ -2887,7 +2890,7 @@
         <v>117</v>
       </c>
       <c r="B142" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143">
@@ -2895,7 +2898,7 @@
         <v>118</v>
       </c>
       <c r="B143" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="144">
@@ -2903,7 +2906,7 @@
         <v>119</v>
       </c>
       <c r="B144" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="145">
@@ -2911,7 +2914,7 @@
         <v>120</v>
       </c>
       <c r="B145" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="146">
@@ -2919,7 +2922,7 @@
         <v>121</v>
       </c>
       <c r="B146" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="147">
@@ -2927,7 +2930,7 @@
         <v>122</v>
       </c>
       <c r="B147" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -2935,7 +2938,7 @@
         <v>123</v>
       </c>
       <c r="B148" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149">
@@ -2943,7 +2946,7 @@
         <v>124</v>
       </c>
       <c r="B149" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150">
@@ -2951,7 +2954,7 @@
         <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="151">
@@ -2959,7 +2962,7 @@
         <v>126</v>
       </c>
       <c r="B151" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152">
@@ -2967,7 +2970,7 @@
         <v>127</v>
       </c>
       <c r="B152" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="153">
@@ -2975,7 +2978,7 @@
         <v>128</v>
       </c>
       <c r="B153" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="154">
@@ -2983,7 +2986,7 @@
         <v>129</v>
       </c>
       <c r="B154" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="155">
@@ -2991,7 +2994,7 @@
         <v>130</v>
       </c>
       <c r="B155" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156">
@@ -2999,7 +3002,7 @@
         <v>131</v>
       </c>
       <c r="B156" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157">
@@ -3007,7 +3010,7 @@
         <v>132</v>
       </c>
       <c r="B157" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="158">
@@ -3015,7 +3018,7 @@
         <v>133</v>
       </c>
       <c r="B158" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="159">
@@ -3023,7 +3026,7 @@
         <v>134</v>
       </c>
       <c r="B159" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="160">
@@ -3031,7 +3034,7 @@
         <v>135</v>
       </c>
       <c r="B160" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="161">
@@ -3039,7 +3042,7 @@
         <v>136</v>
       </c>
       <c r="B161" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="162">
@@ -3047,7 +3050,7 @@
         <v>137</v>
       </c>
       <c r="B162" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="163">
@@ -3055,7 +3058,7 @@
         <v>138</v>
       </c>
       <c r="B163" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="164">
@@ -3063,7 +3066,7 @@
         <v>139</v>
       </c>
       <c r="B164" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="165">
@@ -3071,15 +3074,15 @@
         <v>140</v>
       </c>
       <c r="B165" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
         <v>141</v>
       </c>
-      <c r="B166" t="e">
-        <v>#N/A</v>
+      <c r="B166" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="167">
@@ -3087,7 +3090,7 @@
         <v>142</v>
       </c>
       <c r="B167" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168">
@@ -3095,7 +3098,7 @@
         <v>143</v>
       </c>
       <c r="B168" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="169">
@@ -3103,7 +3106,7 @@
         <v>144</v>
       </c>
       <c r="B169" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="170">
@@ -3111,7 +3114,7 @@
         <v>145</v>
       </c>
       <c r="B170" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171">
@@ -3119,7 +3122,7 @@
         <v>146</v>
       </c>
       <c r="B171" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172">
@@ -3127,23 +3130,23 @@
         <v>147</v>
       </c>
       <c r="B172" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
         <v>148</v>
       </c>
-      <c r="B173" t="e">
-        <v>#N/A</v>
+      <c r="B173" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
         <v>149</v>
       </c>
-      <c r="B174" t="e">
-        <v>#N/A</v>
+      <c r="B174" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="175">
@@ -3151,7 +3154,7 @@
         <v>150</v>
       </c>
       <c r="B175" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176">
@@ -3159,7 +3162,7 @@
         <v>151</v>
       </c>
       <c r="B176" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="177">
@@ -3167,7 +3170,7 @@
         <v>152</v>
       </c>
       <c r="B177" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="178">
@@ -3175,7 +3178,7 @@
         <v>153</v>
       </c>
       <c r="B178" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="179">
@@ -3183,7 +3186,7 @@
         <v>154</v>
       </c>
       <c r="B179" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="180">
@@ -3191,15 +3194,15 @@
         <v>155</v>
       </c>
       <c r="B180" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
         <v>156</v>
       </c>
-      <c r="B181" t="e">
-        <v>#N/A</v>
+      <c r="B181" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="182">
@@ -3207,7 +3210,7 @@
         <v>157</v>
       </c>
       <c r="B182" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="183">
@@ -3215,7 +3218,7 @@
         <v>158</v>
       </c>
       <c r="B183" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="184">
@@ -3223,7 +3226,7 @@
         <v>159</v>
       </c>
       <c r="B184" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="185">
@@ -3231,7 +3234,7 @@
         <v>160</v>
       </c>
       <c r="B185" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="186">
@@ -3239,7 +3242,7 @@
         <v>161</v>
       </c>
       <c r="B186" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="187">
@@ -3247,7 +3250,7 @@
         <v>162</v>
       </c>
       <c r="B187" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188">
@@ -3255,15 +3258,15 @@
         <v>163</v>
       </c>
       <c r="B188" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
         <v>164</v>
       </c>
-      <c r="B189" t="e">
-        <v>#N/A</v>
+      <c r="B189" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="190">
@@ -3271,7 +3274,7 @@
         <v>165</v>
       </c>
       <c r="B190" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="191">
@@ -3279,7 +3282,7 @@
         <v>166</v>
       </c>
       <c r="B191" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="192">
@@ -3287,7 +3290,7 @@
         <v>167</v>
       </c>
       <c r="B192" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193">
@@ -3295,7 +3298,7 @@
         <v>168</v>
       </c>
       <c r="B193" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="194">
@@ -3303,7 +3306,7 @@
         <v>169</v>
       </c>
       <c r="B194" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="195">
@@ -3311,7 +3314,7 @@
         <v>170</v>
       </c>
       <c r="B195" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196">
@@ -3319,31 +3322,31 @@
         <v>171</v>
       </c>
       <c r="B196" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
         <v>172</v>
       </c>
-      <c r="B197" t="e">
-        <v>#N/A</v>
+      <c r="B197" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
         <v>173</v>
       </c>
-      <c r="B198" t="e">
-        <v>#N/A</v>
+      <c r="B198" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
         <v>174</v>
       </c>
-      <c r="B199" t="e">
-        <v>#N/A</v>
+      <c r="B199" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="200">
@@ -3351,7 +3354,7 @@
         <v>175</v>
       </c>
       <c r="B200" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="201">
@@ -3359,7 +3362,7 @@
         <v>176</v>
       </c>
       <c r="B201" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202">
@@ -3367,7 +3370,7 @@
         <v>177</v>
       </c>
       <c r="B202" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="203">
@@ -3375,7 +3378,7 @@
         <v>178</v>
       </c>
       <c r="B203" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204">
@@ -3383,7 +3386,7 @@
         <v>179</v>
       </c>
       <c r="B204" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="205">
@@ -3391,7 +3394,7 @@
         <v>180</v>
       </c>
       <c r="B205" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="206">
@@ -3399,7 +3402,7 @@
         <v>181</v>
       </c>
       <c r="B206" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="207">
@@ -3407,7 +3410,7 @@
         <v>182</v>
       </c>
       <c r="B207" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="208">
@@ -3415,7 +3418,7 @@
         <v>182</v>
       </c>
       <c r="B208" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209">
@@ -3423,7 +3426,7 @@
         <v>182</v>
       </c>
       <c r="B209" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="210">
@@ -3431,7 +3434,7 @@
         <v>182</v>
       </c>
       <c r="B210" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211">
@@ -3439,7 +3442,7 @@
         <v>182</v>
       </c>
       <c r="B211" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="212">
@@ -3447,7 +3450,7 @@
         <v>182</v>
       </c>
       <c r="B212" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="213">
@@ -3455,7 +3458,7 @@
         <v>182</v>
       </c>
       <c r="B213" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="214">
@@ -3463,7 +3466,7 @@
         <v>182</v>
       </c>
       <c r="B214" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="215">
@@ -3471,7 +3474,7 @@
         <v>182</v>
       </c>
       <c r="B215" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="216">
@@ -3479,7 +3482,7 @@
         <v>182</v>
       </c>
       <c r="B216" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217">
@@ -3487,7 +3490,7 @@
         <v>182</v>
       </c>
       <c r="B217" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="218">
@@ -3495,7 +3498,7 @@
         <v>182</v>
       </c>
       <c r="B218" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="219">
@@ -3503,7 +3506,7 @@
         <v>182</v>
       </c>
       <c r="B219" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="220">
@@ -3511,7 +3514,7 @@
         <v>182</v>
       </c>
       <c r="B220" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="221">
@@ -3519,7 +3522,7 @@
         <v>182</v>
       </c>
       <c r="B221" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222">
@@ -3527,7 +3530,7 @@
         <v>182</v>
       </c>
       <c r="B222" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="223">
@@ -3535,7 +3538,7 @@
         <v>182</v>
       </c>
       <c r="B223" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224">
@@ -3543,7 +3546,7 @@
         <v>182</v>
       </c>
       <c r="B224" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="225">
@@ -3551,7 +3554,7 @@
         <v>182</v>
       </c>
       <c r="B225" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="226">
@@ -3559,7 +3562,7 @@
         <v>182</v>
       </c>
       <c r="B226" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="227">
@@ -3567,7 +3570,7 @@
         <v>182</v>
       </c>
       <c r="B227" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="228">
@@ -3575,7 +3578,7 @@
         <v>182</v>
       </c>
       <c r="B228" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="229">
@@ -3583,7 +3586,7 @@
         <v>182</v>
       </c>
       <c r="B229" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="230">
@@ -3591,7 +3594,7 @@
         <v>182</v>
       </c>
       <c r="B230" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="231">
@@ -3599,7 +3602,7 @@
         <v>183</v>
       </c>
       <c r="B231" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="232">
@@ -3607,7 +3610,7 @@
         <v>184</v>
       </c>
       <c r="B232" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="233">
@@ -3615,7 +3618,7 @@
         <v>185</v>
       </c>
       <c r="B233" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="234">
@@ -3623,7 +3626,7 @@
         <v>186</v>
       </c>
       <c r="B234" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="235">
@@ -3631,7 +3634,7 @@
         <v>187</v>
       </c>
       <c r="B235" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="236">
@@ -3639,7 +3642,7 @@
         <v>188</v>
       </c>
       <c r="B236" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="237">
@@ -3647,7 +3650,7 @@
         <v>189</v>
       </c>
       <c r="B237" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="238">
@@ -3655,7 +3658,7 @@
         <v>190</v>
       </c>
       <c r="B238" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="239">
@@ -3663,7 +3666,7 @@
         <v>191</v>
       </c>
       <c r="B239" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="240">
@@ -3671,7 +3674,7 @@
         <v>192</v>
       </c>
       <c r="B240" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="241">
@@ -3679,7 +3682,7 @@
         <v>193</v>
       </c>
       <c r="B241" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="242">
@@ -3687,7 +3690,7 @@
         <v>194</v>
       </c>
       <c r="B242" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="243">
@@ -3695,7 +3698,7 @@
         <v>195</v>
       </c>
       <c r="B243" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="244">
@@ -3703,7 +3706,7 @@
         <v>196</v>
       </c>
       <c r="B244" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245">
@@ -3711,7 +3714,7 @@
         <v>197</v>
       </c>
       <c r="B245" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="246">
@@ -3719,7 +3722,7 @@
         <v>198</v>
       </c>
       <c r="B246" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="247">
@@ -3727,7 +3730,7 @@
         <v>199</v>
       </c>
       <c r="B247" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="248">
@@ -3735,7 +3738,7 @@
         <v>200</v>
       </c>
       <c r="B248" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249">
@@ -3743,7 +3746,7 @@
         <v>201</v>
       </c>
       <c r="B249" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="250">
@@ -3751,7 +3754,7 @@
         <v>202</v>
       </c>
       <c r="B250" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="251">
@@ -3759,7 +3762,7 @@
         <v>203</v>
       </c>
       <c r="B251" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252">
@@ -3767,7 +3770,7 @@
         <v>204</v>
       </c>
       <c r="B252" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="253">
@@ -3775,7 +3778,7 @@
         <v>205</v>
       </c>
       <c r="B253" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="254">
@@ -3783,7 +3786,7 @@
         <v>206</v>
       </c>
       <c r="B254" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="255">
@@ -3791,7 +3794,7 @@
         <v>207</v>
       </c>
       <c r="B255" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="256">
@@ -3799,7 +3802,7 @@
         <v>208</v>
       </c>
       <c r="B256" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="257">
@@ -3807,7 +3810,7 @@
         <v>209</v>
       </c>
       <c r="B257" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="258">
@@ -3815,7 +3818,7 @@
         <v>210</v>
       </c>
       <c r="B258" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="259">
@@ -3823,7 +3826,7 @@
         <v>211</v>
       </c>
       <c r="B259" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="260">
@@ -3831,7 +3834,7 @@
         <v>212</v>
       </c>
       <c r="B260" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="261">
@@ -3839,7 +3842,7 @@
         <v>213</v>
       </c>
       <c r="B261" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262">
@@ -3847,7 +3850,7 @@
         <v>214</v>
       </c>
       <c r="B262" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="263">
@@ -3855,7 +3858,7 @@
         <v>215</v>
       </c>
       <c r="B263" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="264">
@@ -3863,7 +3866,7 @@
         <v>216</v>
       </c>
       <c r="B264" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="265">
@@ -3871,7 +3874,7 @@
         <v>217</v>
       </c>
       <c r="B265" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="266">
@@ -3879,7 +3882,7 @@
         <v>218</v>
       </c>
       <c r="B266" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="267">
@@ -3887,7 +3890,7 @@
         <v>219</v>
       </c>
       <c r="B267" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="268">
@@ -3895,7 +3898,7 @@
         <v>220</v>
       </c>
       <c r="B268" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="269">
@@ -3903,7 +3906,7 @@
         <v>221</v>
       </c>
       <c r="B269" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="270">
@@ -3911,7 +3914,7 @@
         <v>222</v>
       </c>
       <c r="B270" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="271">
@@ -3919,7 +3922,7 @@
         <v>223</v>
       </c>
       <c r="B271" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="272">
@@ -3927,7 +3930,7 @@
         <v>224</v>
       </c>
       <c r="B272" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="273">
@@ -3935,7 +3938,7 @@
         <v>225</v>
       </c>
       <c r="B273" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="274">
@@ -3943,7 +3946,7 @@
         <v>226</v>
       </c>
       <c r="B274" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="275">
@@ -3951,7 +3954,7 @@
         <v>227</v>
       </c>
       <c r="B275" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="276">
@@ -3959,7 +3962,7 @@
         <v>228</v>
       </c>
       <c r="B276" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="277">
@@ -3967,7 +3970,7 @@
         <v>229</v>
       </c>
       <c r="B277" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="278">
@@ -3975,7 +3978,7 @@
         <v>229</v>
       </c>
       <c r="B278" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="279">
@@ -3983,7 +3986,7 @@
         <v>229</v>
       </c>
       <c r="B279" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="280">
@@ -3991,7 +3994,7 @@
         <v>230</v>
       </c>
       <c r="B280" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="281">
@@ -3999,7 +4002,7 @@
         <v>231</v>
       </c>
       <c r="B281" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="282">
@@ -4007,7 +4010,7 @@
         <v>232</v>
       </c>
       <c r="B282" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="283">
@@ -4015,7 +4018,7 @@
         <v>233</v>
       </c>
       <c r="B283" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="284">
@@ -4023,7 +4026,7 @@
         <v>234</v>
       </c>
       <c r="B284" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="285">
@@ -4031,7 +4034,7 @@
         <v>235</v>
       </c>
       <c r="B285" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="286">
@@ -4039,7 +4042,7 @@
         <v>236</v>
       </c>
       <c r="B286" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="287">
@@ -4047,7 +4050,7 @@
         <v>237</v>
       </c>
       <c r="B287" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="288">
@@ -4055,7 +4058,7 @@
         <v>238</v>
       </c>
       <c r="B288" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="289">
@@ -4063,7 +4066,7 @@
         <v>239</v>
       </c>
       <c r="B289" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290">
@@ -4071,7 +4074,7 @@
         <v>240</v>
       </c>
       <c r="B290" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="291">
@@ -4079,7 +4082,7 @@
         <v>241</v>
       </c>
       <c r="B291" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="292">
@@ -4087,7 +4090,7 @@
         <v>242</v>
       </c>
       <c r="B292" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="293">
@@ -4095,7 +4098,7 @@
         <v>243</v>
       </c>
       <c r="B293" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="294">
@@ -4103,7 +4106,7 @@
         <v>244</v>
       </c>
       <c r="B294" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="295">
@@ -4111,7 +4114,7 @@
         <v>245</v>
       </c>
       <c r="B295" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="296">
@@ -4119,7 +4122,7 @@
         <v>246</v>
       </c>
       <c r="B296" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="297">
@@ -4127,7 +4130,7 @@
         <v>247</v>
       </c>
       <c r="B297" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="298">
@@ -4135,7 +4138,7 @@
         <v>248</v>
       </c>
       <c r="B298" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="299">
@@ -4143,7 +4146,7 @@
         <v>249</v>
       </c>
       <c r="B299" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="300">
@@ -4151,7 +4154,7 @@
         <v>250</v>
       </c>
       <c r="B300" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="301">
@@ -4159,7 +4162,7 @@
         <v>251</v>
       </c>
       <c r="B301" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="302">
@@ -4167,7 +4170,7 @@
         <v>252</v>
       </c>
       <c r="B302" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="303">
@@ -4175,7 +4178,7 @@
         <v>253</v>
       </c>
       <c r="B303" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="304">
@@ -4183,7 +4186,7 @@
         <v>254</v>
       </c>
       <c r="B304" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="305">
@@ -4191,7 +4194,7 @@
         <v>255</v>
       </c>
       <c r="B305" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="306">
@@ -4199,7 +4202,7 @@
         <v>255</v>
       </c>
       <c r="B306" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="307">
@@ -4207,7 +4210,7 @@
         <v>256</v>
       </c>
       <c r="B307" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="308">
@@ -4215,7 +4218,7 @@
         <v>257</v>
       </c>
       <c r="B308" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="309">
@@ -4223,7 +4226,7 @@
         <v>257</v>
       </c>
       <c r="B309" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="310">
@@ -4231,7 +4234,7 @@
         <v>258</v>
       </c>
       <c r="B310" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="311">
@@ -4239,7 +4242,7 @@
         <v>259</v>
       </c>
       <c r="B311" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="312">
@@ -4247,7 +4250,7 @@
         <v>260</v>
       </c>
       <c r="B312" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="313">
@@ -4255,7 +4258,7 @@
         <v>261</v>
       </c>
       <c r="B313" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="314">
@@ -4263,7 +4266,7 @@
         <v>262</v>
       </c>
       <c r="B314" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="315">
@@ -4271,7 +4274,7 @@
         <v>263</v>
       </c>
       <c r="B315" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="316">
@@ -4279,7 +4282,7 @@
         <v>264</v>
       </c>
       <c r="B316" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="317">
@@ -4287,7 +4290,7 @@
         <v>265</v>
       </c>
       <c r="B317" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="318">
@@ -4295,7 +4298,7 @@
         <v>266</v>
       </c>
       <c r="B318" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="319">
@@ -4303,7 +4306,7 @@
         <v>266</v>
       </c>
       <c r="B319" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="320">
@@ -4311,215 +4314,215 @@
         <v>267</v>
       </c>
       <c r="B320" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
         <v>268</v>
       </c>
-      <c r="B321" t="e">
-        <v>#N/A</v>
+      <c r="B321" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
         <v>269</v>
       </c>
-      <c r="B322" t="e">
-        <v>#N/A</v>
+      <c r="B322" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
         <v>270</v>
       </c>
-      <c r="B323" t="e">
-        <v>#N/A</v>
+      <c r="B323" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
         <v>271</v>
       </c>
-      <c r="B324" t="e">
-        <v>#N/A</v>
+      <c r="B324" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
         <v>272</v>
       </c>
-      <c r="B325" t="e">
-        <v>#N/A</v>
+      <c r="B325" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
         <v>273</v>
       </c>
-      <c r="B326" t="e">
-        <v>#N/A</v>
+      <c r="B326" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
         <v>274</v>
       </c>
-      <c r="B327" t="e">
-        <v>#N/A</v>
+      <c r="B327" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
         <v>275</v>
       </c>
-      <c r="B328" t="e">
-        <v>#N/A</v>
+      <c r="B328" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
         <v>276</v>
       </c>
-      <c r="B329" t="e">
-        <v>#N/A</v>
+      <c r="B329" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
         <v>277</v>
       </c>
-      <c r="B330" t="e">
-        <v>#N/A</v>
+      <c r="B330" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
         <v>278</v>
       </c>
-      <c r="B331" t="e">
-        <v>#N/A</v>
+      <c r="B331" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
         <v>279</v>
       </c>
-      <c r="B332" t="e">
-        <v>#N/A</v>
+      <c r="B332" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
         <v>280</v>
       </c>
-      <c r="B333" t="e">
-        <v>#N/A</v>
+      <c r="B333" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
         <v>281</v>
       </c>
-      <c r="B334" t="e">
-        <v>#N/A</v>
+      <c r="B334" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
         <v>282</v>
       </c>
-      <c r="B335" t="e">
-        <v>#N/A</v>
+      <c r="B335" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
         <v>283</v>
       </c>
-      <c r="B336" t="e">
-        <v>#N/A</v>
+      <c r="B336" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
         <v>284</v>
       </c>
-      <c r="B337" t="e">
-        <v>#N/A</v>
+      <c r="B337" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
         <v>285</v>
       </c>
-      <c r="B338" t="e">
-        <v>#N/A</v>
+      <c r="B338" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
         <v>286</v>
       </c>
-      <c r="B339" t="e">
-        <v>#N/A</v>
+      <c r="B339" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
         <v>287</v>
       </c>
-      <c r="B340" t="e">
-        <v>#N/A</v>
+      <c r="B340" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
         <v>288</v>
       </c>
-      <c r="B341" t="e">
-        <v>#N/A</v>
+      <c r="B341" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
         <v>289</v>
       </c>
-      <c r="B342" t="e">
-        <v>#N/A</v>
+      <c r="B342" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
         <v>290</v>
       </c>
-      <c r="B343" t="e">
-        <v>#N/A</v>
+      <c r="B343" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
         <v>291</v>
       </c>
-      <c r="B344" t="e">
-        <v>#N/A</v>
+      <c r="B344" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
         <v>292</v>
       </c>
-      <c r="B345" t="e">
-        <v>#N/A</v>
+      <c r="B345" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
         <v>293</v>
       </c>
-      <c r="B346" t="e">
-        <v>#N/A</v>
+      <c r="B346" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
